--- a/Results/RQ2.xlsx
+++ b/Results/RQ2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigiris/Downloads/TestTD/ToPublic/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA209952-96AC-E641-8613-C747E421C746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582B9BB2-3528-974A-9BC9-999FBF3D5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="1940" windowWidth="27840" windowHeight="15620" activeTab="1" xr2:uid="{032AF1A6-6088-024C-A342-C14718DBB522}"/>
   </bookViews>
@@ -901,7 +901,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
